--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$172</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5958" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -579,13 +579,13 @@
     <t>Associated documentation about the associated medication knowledge.</t>
   </si>
   <si>
-    <t>isAMedicineOf</t>
+    <t>isAPharmaceuticalProductOf</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/relMedCS"/&gt;
-    &lt;code value="MEDOF"/&gt;
+    &lt;code value="PHARMOF"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -622,7 +622,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
-    &lt;code value="MEDPROD"/&gt;
+    &lt;code value="PHARMPROD"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1154,6 +1154,9 @@
     &lt;code value="MAS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>clinicalTrial</t>
   </si>
   <si>
     <t>MedicationKnowledge.contraindication</t>
@@ -1490,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM166"/>
+  <dimension ref="A1:AM172"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11908,7 +11911,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>42</v>
@@ -15892,7 +15895,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>48</v>
@@ -16546,9 +16549,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>40</v>
       </c>
@@ -16569,13 +16574,13 @@
         <v>40</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16626,7 +16631,7 @@
         <v>40</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -16653,9 +16658,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16666,10 +16671,10 @@
         <v>41</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>40</v>
@@ -16678,13 +16683,13 @@
         <v>40</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>356</v>
+        <v>159</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>357</v>
+        <v>160</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16735,22 +16740,22 @@
         <v>40</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>40</v>
@@ -16764,18 +16769,18 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>40</v>
@@ -16787,15 +16792,17 @@
         <v>40</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>40</v>
@@ -16844,19 +16851,19 @@
         <v>40</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>162</v>
@@ -16873,11 +16880,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16890,24 +16897,26 @@
         <v>40</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O140" t="s" s="2">
         <v>40</v>
       </c>
@@ -16955,7 +16964,7 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -16970,7 +16979,7 @@
         <v>99</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>40</v>
@@ -16984,43 +16993,39 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>40</v>
       </c>
@@ -17044,13 +17049,13 @@
         <v>40</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>40</v>
@@ -17068,22 +17073,22 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>40</v>
@@ -17097,7 +17102,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17105,7 +17110,7 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s" s="2">
         <v>48</v>
@@ -17120,15 +17125,17 @@
         <v>40</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>40</v>
@@ -17177,10 +17184,10 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>48</v>
@@ -17204,9 +17211,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17220,7 +17227,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>40</v>
@@ -17229,13 +17236,13 @@
         <v>40</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>152</v>
+        <v>353</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17286,7 +17293,7 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -17313,9 +17320,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17326,10 +17333,10 @@
         <v>41</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>40</v>
@@ -17338,13 +17345,13 @@
         <v>40</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17395,22 +17402,22 @@
         <v>40</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>161</v>
+        <v>356</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>40</v>
@@ -17424,18 +17431,18 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>40</v>
@@ -17447,17 +17454,15 @@
         <v>40</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>40</v>
@@ -17506,19 +17511,19 @@
         <v>40</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>162</v>
@@ -17535,11 +17540,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17552,26 +17557,24 @@
         <v>40</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N146" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>40</v>
       </c>
@@ -17619,7 +17622,7 @@
         <v>40</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -17634,7 +17637,7 @@
         <v>99</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>40</v>
@@ -17648,39 +17651,43 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O147" t="s" s="2">
         <v>40</v>
       </c>
@@ -17728,22 +17735,22 @@
         <v>40</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>370</v>
+        <v>170</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>40</v>
@@ -17757,7 +17764,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17780,13 +17787,13 @@
         <v>40</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17837,7 +17844,7 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>48</v>
@@ -17866,7 +17873,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17892,10 +17899,10 @@
         <v>152</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17946,7 +17953,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -17975,7 +17982,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18084,7 +18091,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18195,7 +18202,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18308,7 +18315,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18334,10 +18341,10 @@
         <v>106</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18388,7 +18395,7 @@
         <v>40</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>48</v>
@@ -18417,7 +18424,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18425,7 +18432,7 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>48</v>
@@ -18440,13 +18447,13 @@
         <v>40</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18497,10 +18504,10 @@
         <v>40</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>48</v>
@@ -18526,7 +18533,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18537,7 +18544,7 @@
         <v>41</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>40</v>
@@ -18549,13 +18556,13 @@
         <v>40</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>159</v>
+        <v>378</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>160</v>
+        <v>379</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18606,22 +18613,22 @@
         <v>40</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>40</v>
@@ -18635,18 +18642,18 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>40</v>
@@ -18658,17 +18665,15 @@
         <v>40</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>40</v>
@@ -18717,19 +18722,19 @@
         <v>40</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>162</v>
@@ -18746,11 +18751,11 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -18763,26 +18768,24 @@
         <v>40</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J157" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N157" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>40</v>
       </c>
@@ -18830,7 +18833,7 @@
         <v>40</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -18845,7 +18848,7 @@
         <v>99</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>40</v>
@@ -18859,39 +18862,43 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O158" t="s" s="2">
         <v>40</v>
       </c>
@@ -18939,22 +18946,22 @@
         <v>40</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>391</v>
+        <v>170</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>40</v>
@@ -18968,7 +18975,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18976,7 +18983,7 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>48</v>
@@ -18991,13 +18998,13 @@
         <v>40</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>395</v>
+        <v>106</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19048,10 +19055,10 @@
         <v>40</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>48</v>
@@ -19075,9 +19082,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19088,10 +19095,10 @@
         <v>41</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>40</v>
@@ -19103,10 +19110,10 @@
         <v>152</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19157,13 +19164,13 @@
         <v>40</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>40</v>
@@ -19186,7 +19193,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19295,7 +19302,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19406,7 +19413,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19519,7 +19526,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19527,10 +19534,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>40</v>
@@ -19545,10 +19552,10 @@
         <v>143</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19599,13 +19606,13 @@
         <v>40</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>40</v>
@@ -19628,7 +19635,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19639,7 +19646,7 @@
         <v>41</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>40</v>
@@ -19651,13 +19658,13 @@
         <v>40</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19708,13 +19715,13 @@
         <v>40</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>40</v>
@@ -19735,9 +19742,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19748,10 +19755,10 @@
         <v>41</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>40</v>
@@ -19760,13 +19767,13 @@
         <v>40</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19817,13 +19824,13 @@
         <v>40</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>40</v>
@@ -19844,8 +19851,668 @@
         <v>40</v>
       </c>
     </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" hidden="true">
+      <c r="A171" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" hidden="true">
+      <c r="A172" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM166">
+  <autoFilter ref="A1:AM172">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19855,7 +20522,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI165">
+  <conditionalFormatting sqref="A2:AI171">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:.}
+    <t xml:space="preserve">value:.}
 </t>
   </si>
   <si>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -506,7 +506,7 @@
     <t>Associated or related knowledge about a medication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>48</v>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5958" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5958" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -1157,6 +1157,14 @@
   </si>
   <si>
     <t>clinicalTrial</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/productType"/&gt;
+    &lt;code value="TRIAL"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>MedicationKnowledge.contraindication</t>
@@ -12353,7 +12361,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>48</v>
@@ -13017,7 +13025,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>48</v>
@@ -13681,7 +13689,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>48</v>
@@ -14345,7 +14353,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>48</v>
@@ -15009,7 +15017,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>48</v>
@@ -15673,7 +15681,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>48</v>
@@ -16337,7 +16345,7 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>48</v>
@@ -17001,7 +17009,7 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>48</v>
@@ -17034,7 +17042,7 @@
         <v>40</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>40</v>
@@ -17213,7 +17221,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17236,13 +17244,13 @@
         <v>40</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17293,7 +17301,7 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -17322,7 +17330,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17348,10 +17356,10 @@
         <v>152</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17402,7 +17410,7 @@
         <v>40</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -17431,7 +17439,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17540,7 +17548,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17651,7 +17659,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17764,7 +17772,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17790,10 +17798,10 @@
         <v>126</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -17844,7 +17852,7 @@
         <v>40</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>48</v>
@@ -17873,7 +17881,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17899,10 +17907,10 @@
         <v>152</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17953,7 +17961,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -17982,7 +17990,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18091,7 +18099,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18202,7 +18210,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18315,7 +18323,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18341,10 +18349,10 @@
         <v>106</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18395,7 +18403,7 @@
         <v>40</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>48</v>
@@ -18424,7 +18432,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18450,10 +18458,10 @@
         <v>214</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -18504,7 +18512,7 @@
         <v>40</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>48</v>
@@ -18533,7 +18541,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18559,10 +18567,10 @@
         <v>152</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18613,7 +18621,7 @@
         <v>40</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -18642,7 +18650,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18751,7 +18759,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18862,7 +18870,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18975,7 +18983,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19001,10 +19009,10 @@
         <v>106</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19055,7 +19063,7 @@
         <v>40</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>48</v>
@@ -19084,7 +19092,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19110,10 +19118,10 @@
         <v>152</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -19164,7 +19172,7 @@
         <v>40</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -19193,7 +19201,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19302,7 +19310,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19413,7 +19421,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19526,7 +19534,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19552,10 +19560,10 @@
         <v>143</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19606,7 +19614,7 @@
         <v>40</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>48</v>
@@ -19635,7 +19643,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19658,13 +19666,13 @@
         <v>40</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19715,7 +19723,7 @@
         <v>40</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -19744,7 +19752,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19770,10 +19778,10 @@
         <v>152</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19824,7 +19832,7 @@
         <v>40</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -19853,7 +19861,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19962,7 +19970,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20073,7 +20081,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20186,7 +20194,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20212,10 +20220,10 @@
         <v>143</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20266,7 +20274,7 @@
         <v>40</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -20295,7 +20303,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20321,10 +20329,10 @@
         <v>143</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -20375,7 +20383,7 @@
         <v>40</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -20404,7 +20412,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20427,13 +20435,13 @@
         <v>40</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20484,7 +20492,7 @@
         <v>40</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -612,7 +612,7 @@
     <t>Category of the medication or product (e.g. branded product, therapeutic moeity, generic product, innovator product, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:.}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -622,7 +622,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
-    &lt;code value="PHARMPROD"/&gt;
+    &lt;code value="MEDPROD"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -579,13 +579,13 @@
     <t>Associated documentation about the associated medication knowledge.</t>
   </si>
   <si>
-    <t>isAPharmaceuticalProductOf</t>
+    <t>isAMedicinalProductOf</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/relMedCS"/&gt;
-    &lt;code value="PHARMOF"/&gt;
+    &lt;code value="MEDOF"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:11:10+00:00</t>
+    <t>2021-09-14T08:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:27:49+00:00</t>
+    <t>2021-10-08T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T08:43:20+00:00</t>
+    <t>2021-10-08T09:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -709,7 +709,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/medicineCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/example/CodeSystem/mediCS"/&gt;
     &lt;code value="MEDPROD"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProduct.xlsx
+++ b/StructureDefinition-MedicinalProduct.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
